--- a/biology/Médecine/Needling/Needling.xlsx
+++ b/biology/Médecine/Needling/Needling.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le needling est une chirurgie mineure de l'œil afin de rouvrir le canal de Schlemm et rétablir le drainage normal de l'humeur aqueuse.  Cette intervention est le plus souvent requise après une trabéculectomie, un traitement du glaucome, dans les cas où la cicatrisation a à nouveau bloqué le drainage.
 Le canal de Schlemm a tendance à cicatriser très vite chez les sujets jeunes à la suite de l'opération, généralement cinq mois en moyenne après l'intervention. 
